--- a/StoreManagement/wwwroot/Uploads/Products.xlsx
+++ b/StoreManagement/wwwroot/Uploads/Products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khacc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB76A02-6008-4B1D-AADA-097515B14A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A2AEB7-C106-4DC7-9B70-03F369E059C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,20 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>fadsf</t>
-  </si>
-  <si>
-    <t>fasd</t>
-  </si>
-  <si>
-    <t>CreatedDate</t>
-  </si>
-  <si>
     <t>ProductCode</t>
   </si>
   <si>
@@ -82,21 +73,6 @@
     <t>Bộ</t>
   </si>
   <si>
-    <t>p0006</t>
-  </si>
-  <si>
-    <t>p0007</t>
-  </si>
-  <si>
-    <t>p0008</t>
-  </si>
-  <si>
-    <t>p0009</t>
-  </si>
-  <si>
-    <t>p0010</t>
-  </si>
-  <si>
     <t>Áo Khoác</t>
   </si>
   <si>
@@ -110,15 +86,30 @@
   </si>
   <si>
     <t>Đầm ngủ</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>p0001</t>
+  </si>
+  <si>
+    <t>p0002</t>
+  </si>
+  <si>
+    <t>p0003</t>
+  </si>
+  <si>
+    <t>p0004</t>
+  </si>
+  <si>
+    <t>p0005</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -155,9 +146,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -473,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DF2C43-225C-41F2-BC3F-7522407B10FE}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -486,50 +476,46 @@
     <col min="3" max="3" width="13.36328125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="6" max="6" width="13.90625" customWidth="1"/>
-    <col min="8" max="8" width="21.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>1000</v>
@@ -538,30 +524,27 @@
         <v>1100</v>
       </c>
       <c r="F2" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" s="1">
-        <v>45152</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>14</v>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>1200</v>
@@ -570,30 +553,27 @@
         <v>1210</v>
       </c>
       <c r="F3" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="1">
-        <v>45153</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>14</v>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>1400</v>
@@ -602,30 +582,27 @@
         <v>1620</v>
       </c>
       <c r="F4" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="1">
-        <v>45154</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>1600</v>
@@ -634,30 +611,27 @@
         <v>1730</v>
       </c>
       <c r="F5" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" s="1">
-        <v>45155</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>18</v>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>1800</v>
@@ -666,19 +640,16 @@
         <v>1940</v>
       </c>
       <c r="F6" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="1">
-        <v>45156</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>19</v>
+      <c r="H6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
